--- a/biology/Zoologie/Cygne_de_Bewick/Cygne_de_Bewick.xlsx
+++ b/biology/Zoologie/Cygne_de_Bewick/Cygne_de_Bewick.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cygnus columbianus bewickii
 Le Cygne de Bewick (Cygnus columbianus bewickii) est une sous-espèce eurasienne du cygne siffleur (Cygnus columbianus). Elle se distingue de Cygnus columbianus columbianus par le jaune beaucoup plus étendu sur le bec. 
@@ -515,7 +527,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'adulte présente un plumage blanc, des pattes noires et des iris bruns.
 Il a un bec noir et jaune. Ce jaune est beaucoup plus étendu que chez la sous-espèce américaine, le cygne siffleur (Cygnus columbianus columbianus), mais un peu moins étendue que chez le cygne sauvage, (Cygnus cygnus), avec lequel il cohabite fréquemment en Eurasie et qui lui ressemble beaucoup.
